--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1683108.856201702</v>
+        <v>1787288.490652774</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>104.6737263919352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.34416082770972</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>141.7312913064994</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>104.3285722275973</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>201.6622187863182</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>125.799839425217</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>98.39622862162638</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>60.08838152387954</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>257.6276659754732</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>88.36462695393539</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>18.02571356436873</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>113.3048871355474</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>2.813978415462127</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836251</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0567320179875</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>228.3166654621902</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>189.2380031216297</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.7059665293327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4424239494347</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>33.26272630933957</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835251</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.147705894839</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.882007288089</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4479,16 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1784.131627576877</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1562.365012146403</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="U4" t="n">
-        <v>1273.262145272047</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.262145272047</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.262145272047</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>1043.090716780249</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>874.1545338523422</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>724.0378944400064</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1866.599213215887</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1866.599213215887</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1644.832597785413</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1355.729730911056</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.045242705169</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>811.6280726682088</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X7" t="n">
-        <v>583.6385217701915</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8459426266613</v>
+        <v>1224.739181610489</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758594</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3126.057954192897</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3126.057954192897</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>84.71990791134377</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5296,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841098</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998684</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1577.52840832642</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>604.4387941280861</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>604.4387941280861</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>457.5488466301757</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>290.3527473450557</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.3929232910513</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>782.4567403631444</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199802</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.823518162838</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.833967264821</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.041388121291</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,7 +5998,7 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,25 +6007,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1723.868421906481</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3044.507496087131</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3446.948540060901</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3446.948540060901</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3226.155960917371</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.981709809277</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>2877.307316025036</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.685803651587</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206194</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3110.333886317438</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2941.397703389531</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>4030.181651226186</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>4030.181651226186</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>3740.764481189225</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3512.774930291208</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3291.982351147677</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>551.354624631591</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>382.4184417036842</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>2757.723669558407</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>2588.7874866305</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>2504.882831151426</v>
       </c>
       <c r="E37" t="n">
-        <v>555.5643764502967</v>
+        <v>2504.882831151426</v>
       </c>
       <c r="F37" t="n">
-        <v>408.6744289523863</v>
+        <v>2504.882831151426</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>3677.571434467154</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>3388.154264430194</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>3160.164713532176</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>2939.372134388646</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>3240.397708662309</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>3071.461525734402</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>2921.344886322066</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>2773.431792739673</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>2626.541845241763</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>2459.345745956643</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>3422.046173492548</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
   </sheetData>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>26.98982571067646</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>145.8014946027502</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.35027805667451</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>84.77391660561901</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>58.20633287440083</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>96.94647126761447</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>40.3204386478848</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409392967</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>19.85228889678912</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>146.5692538725977</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970277</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907541</v>
@@ -26335,22 +26337,22 @@
         <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.2784788007</v>
+        <v>-975879.2784788009</v>
       </c>
       <c r="C6" t="n">
-        <v>352865.4672487919</v>
+        <v>352865.4672487921</v>
       </c>
       <c r="D6" t="n">
-        <v>352865.4672487918</v>
+        <v>352865.4672487921</v>
       </c>
       <c r="E6" t="n">
-        <v>104072.2110826368</v>
+        <v>104072.2110826366</v>
       </c>
       <c r="F6" t="n">
-        <v>429484.6728899917</v>
+        <v>429484.6728899918</v>
       </c>
       <c r="G6" t="n">
-        <v>429484.6728899917</v>
+        <v>429484.672889992</v>
       </c>
       <c r="H6" t="n">
         <v>429484.672889992</v>
@@ -26543,22 +26545,22 @@
         <v>429484.672889992</v>
       </c>
       <c r="J6" t="n">
-        <v>211953.4704927146</v>
+        <v>211953.4704927143</v>
       </c>
       <c r="K6" t="n">
-        <v>429484.672889992</v>
+        <v>429484.6728899918</v>
       </c>
       <c r="L6" t="n">
-        <v>429484.6728899916</v>
+        <v>429484.6728899918</v>
       </c>
       <c r="M6" t="n">
-        <v>344429.6449544802</v>
+        <v>344429.6449544799</v>
       </c>
       <c r="N6" t="n">
-        <v>429484.6728899918</v>
+        <v>429484.6728899917</v>
       </c>
       <c r="O6" t="n">
-        <v>429484.6728899915</v>
+        <v>429484.6728899917</v>
       </c>
       <c r="P6" t="n">
         <v>429484.6728899918</v>
@@ -26787,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>277.2566436803265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.3869398507593</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>48.03773402494252</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>115.2203770485718</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>147.5787499310948</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>243.931261253252</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>48.03773402494279</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>28.8437711461678</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>107.6452257955343</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>115.5533431856848</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>126.7293013499521</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718169</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32795,31 +32797,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>160.6314956130963</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>289.7537444526272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>697.0074482175627</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974579</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>350.1679638549189</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.64972152707474</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>565.6657361342294</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1787288.490652774</v>
+        <v>1783275.880638781</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>23.34416082770972</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>104.3285722275973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>184.8927310381841</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>125.799839425217</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>98.39622862162638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>88.36462695393539</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777583</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.02571356436873</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>31.39650288673331</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>113.3048871355474</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>19.91555826189101</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>201.4105577836251</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>139.1584054594691</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>251.0567320179875</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>228.3166654621902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>65.06198119183939</v>
       </c>
       <c r="U31" t="n">
-        <v>189.2380031216297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2950343703276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4424239494347</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.26272630933957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.39542574861</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1540.395810483355</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1540.395810483355</v>
+        <v>1428.937141033542</v>
       </c>
       <c r="V4" t="n">
-        <v>1540.395810483355</v>
+        <v>1428.937141033542</v>
       </c>
       <c r="W4" t="n">
-        <v>1540.395810483355</v>
+        <v>1428.937141033542</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.904841306683</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.090716780249</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>874.1545338523422</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>724.0378944400064</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1224.739181610489</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1224.739181610489</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,22 +4801,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3126.057954192897</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3126.057954192897</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2794.995066849327</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2442.226411579212</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.5757713318899</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>529.639588403983</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>379.5229489916472</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>231.6098554092541</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>84.71990791134377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>84.71990791134377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683287</v>
+        <v>961.444616615148</v>
       </c>
       <c r="C16" t="n">
-        <v>754.5554335404219</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>604.4387941280861</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>604.4387941280861</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>457.5488466301757</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>290.3527473450557</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>1143.093081445388</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9333885650335</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2306.399037661605</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.868421906481</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V25" t="n">
-        <v>1469.183933700594</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.766763663633</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.507496087131</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3446.948540060901</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.948540060901</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.155960917371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3110.333886317438</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>2941.397703389531</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.397703389531</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807138</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309227</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.181651226186</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V31" t="n">
-        <v>4030.181651226186</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W31" t="n">
-        <v>3740.764481189225</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X31" t="n">
-        <v>3512.774930291208</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y31" t="n">
-        <v>3291.982351147677</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2479.398563024106</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558407</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.7874866305</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2504.882831151426</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2504.882831151426</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151426</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866306</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328843</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673041</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430194</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3240.397708662309</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3071.461525734402</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2921.344886322066</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2773.431792739673</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2626.541845241763</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2459.345745956643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3642.838752636078</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3422.046173492548</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,22 +7642,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>135.8503182118945</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>26.98982571067646</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.35027805667451</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>84.77391660561901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>41.8678805421755</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.12774237125669</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>58.20633287440083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>152.3434691354489</v>
       </c>
       <c r="U31" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3204386478848</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>19.85228889678912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.5692538725977</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
@@ -26328,34 +26328,34 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.2784788009</v>
+        <v>-975879.2784788008</v>
       </c>
       <c r="C6" t="n">
-        <v>352865.4672487921</v>
+        <v>352865.4672487918</v>
       </c>
       <c r="D6" t="n">
-        <v>352865.4672487921</v>
+        <v>352865.4672487918</v>
       </c>
       <c r="E6" t="n">
-        <v>104072.2110826366</v>
+        <v>103724.8318282797</v>
       </c>
       <c r="F6" t="n">
-        <v>429484.6728899918</v>
+        <v>429137.2936356349</v>
       </c>
       <c r="G6" t="n">
-        <v>429484.672889992</v>
+        <v>429137.2936356349</v>
       </c>
       <c r="H6" t="n">
-        <v>429484.672889992</v>
+        <v>429137.293635635</v>
       </c>
       <c r="I6" t="n">
-        <v>429484.672889992</v>
+        <v>429137.2936356346</v>
       </c>
       <c r="J6" t="n">
-        <v>211953.4704927143</v>
+        <v>211606.0912383571</v>
       </c>
       <c r="K6" t="n">
-        <v>429484.6728899918</v>
+        <v>429137.2936356351</v>
       </c>
       <c r="L6" t="n">
-        <v>429484.6728899918</v>
+        <v>429137.2936356349</v>
       </c>
       <c r="M6" t="n">
-        <v>344429.6449544799</v>
+        <v>344082.2657001231</v>
       </c>
       <c r="N6" t="n">
-        <v>429484.6728899917</v>
+        <v>429137.293635635</v>
       </c>
       <c r="O6" t="n">
-        <v>429484.6728899917</v>
+        <v>429137.2936356346</v>
       </c>
       <c r="P6" t="n">
-        <v>429484.6728899918</v>
+        <v>429137.2936356346</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>346.3869398507593</v>
+        <v>168.0688818921504</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>115.2203770485718</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>101.3191071674287</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>243.931261253252</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.03773402494279</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>115.5533431856848</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923767</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>126.7293013499521</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,10 +32232,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817577</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>697.0074482175627</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237764</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6657361342294</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783275.880638781</v>
+        <v>1785036.410941567</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680975</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>184.8927310381841</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>197.7678063626021</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.1642512458438</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>28.36152683148344</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777583</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.387005480723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>31.39650288673331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>70.81964134445047</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.1584054594691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>97.24762927924141</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>20.66101211579002</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>19.86507844888254</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>65.06198119183939</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>226.9652268912045</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>79.11532312206182</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6594061764987</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>798.5065461617548</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1428.937141033542</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1428.937141033542</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.937141033542</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.947590135525</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>980.1550109919946</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1463.314332159642</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1105.048633552892</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>308.2744761650401</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,19 +4746,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3090.980067092905</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2759.917179749334</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2407.14852447922</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2033.68276621814</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1643.543434242328</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.444616615148</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588918</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445388</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.315625093766</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2306.399037661605</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2086.797572684546</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1797.722346028744</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408906</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.093374372392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.238540027296</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>113.8823988549239</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.17693676985</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>849.3843576263199</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7499,13 +7499,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>315.4429620058363</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>173.7311308480343</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>154.8900140445867</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.8678805421755</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>154.8900140445866</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>45.71423459433166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>152.3434691354489</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>59.21924749803964</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>2.150513196503709</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5874149221291418</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970277</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.2784788008</v>
+        <v>-975879.2784788006</v>
       </c>
       <c r="C6" t="n">
-        <v>352865.4672487918</v>
+        <v>352865.4672487919</v>
       </c>
       <c r="D6" t="n">
-        <v>352865.4672487918</v>
+        <v>352865.4672487921</v>
       </c>
       <c r="E6" t="n">
-        <v>103724.8318282797</v>
+        <v>104037.4731572009</v>
       </c>
       <c r="F6" t="n">
-        <v>429137.2936356349</v>
+        <v>429449.9349645559</v>
       </c>
       <c r="G6" t="n">
-        <v>429137.2936356349</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="H6" t="n">
-        <v>429137.293635635</v>
+        <v>429449.934964556</v>
       </c>
       <c r="I6" t="n">
-        <v>429137.2936356346</v>
+        <v>429449.9349645564</v>
       </c>
       <c r="J6" t="n">
-        <v>211606.0912383571</v>
+        <v>211918.7325672788</v>
       </c>
       <c r="K6" t="n">
-        <v>429137.2936356351</v>
+        <v>429449.934964556</v>
       </c>
       <c r="L6" t="n">
-        <v>429137.2936356349</v>
+        <v>429449.9349645562</v>
       </c>
       <c r="M6" t="n">
-        <v>344082.2657001231</v>
+        <v>344394.9070290442</v>
       </c>
       <c r="N6" t="n">
-        <v>429137.293635635</v>
+        <v>429449.9349645559</v>
       </c>
       <c r="O6" t="n">
-        <v>429137.2936356346</v>
+        <v>429449.934964556</v>
       </c>
       <c r="P6" t="n">
-        <v>429137.2936356346</v>
+        <v>429449.934964556</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26798,10 +26798,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.491952119223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>101.3191071674287</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>213.1539192908513</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5668494326252</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>222.6336451274185</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923767</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34219,7 +34219,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37867,7 +37867,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
